--- a/outputs/sem_score_sheets/sem_scores_analysis_zeroshot_fi.xlsx
+++ b/outputs/sem_score_sheets/sem_scores_analysis_zeroshot_fi.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -872,6 +872,24 @@
       </c>
       <c r="D25" t="n">
         <v>0.0352174380304413</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Overall</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3563767603796366</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0330826674468563</v>
       </c>
     </row>
   </sheetData>
@@ -3199,10 +3217,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3956075141775949</v>
+        <v>0.3953920830407709</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02718394365119852</v>
+        <v>0.02715962428201329</v>
       </c>
     </row>
     <row r="3">
@@ -3212,10 +3230,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3127721568977194</v>
+        <v>0.3127766365386999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02258113411761411</v>
+        <v>0.02261544450318202</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/sem_score_sheets/sem_scores_analysis_zeroshot_fi.xlsx
+++ b/outputs/sem_score_sheets/sem_scores_analysis_zeroshot_fi.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -848,14 +848,16 @@
           <t>got_supporting_ents</t>
         </is>
       </c>
-      <c r="B24" t="b">
-        <v>0</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Non-numerical</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3569748024301869</v>
+        <v>0.3707703386843028</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03283289043929076</v>
+        <v>0.0327991218231786</v>
       </c>
     </row>
     <row r="25">
@@ -864,8 +866,10 @@
           <t>got_supporting_ents</t>
         </is>
       </c>
-      <c r="B25" t="b">
-        <v>1</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Got_supporting_entities</t>
+        </is>
       </c>
       <c r="C25" t="n">
         <v>0.3511937292748674</v>
@@ -877,18 +881,36 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>got_supporting_ents</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>No_supporting_entities</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2013550447592189</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.006849448395551351</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>Overall</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>ALL</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="C27" t="n">
         <v>0.3563767603796366</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D27" t="n">
         <v>0.0330826674468563</v>
       </c>
     </row>
@@ -1101,7 +1123,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -1203,7 +1225,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -1305,7 +1327,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>Got_supporting_entities</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1407,7 +1429,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1509,7 +1531,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>Got_supporting_entities</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1611,7 +1633,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1713,7 +1735,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1815,7 +1837,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1917,7 +1939,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2019,7 +2041,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2242,7 +2264,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>Got_supporting_entities</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -2344,7 +2366,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -2446,7 +2468,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>No_supporting_entities</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -2548,7 +2570,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -2650,7 +2672,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -2752,7 +2774,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -2854,7 +2876,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>No_supporting_entities</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -2956,7 +2978,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>Got_supporting_entities</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -3058,7 +3080,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -3160,7 +3182,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
